--- a/Sura/DataSource - Emision Motor - Prendario.xlsx
+++ b/Sura/DataSource - Emision Motor - Prendario.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE68C6-4614-454C-AC60-404339319173}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ECE4FA-88C5-4DD0-A9E7-2975E883A177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Usuario</t>
   </si>
@@ -132,21 +137,9 @@
     <t>C - Resp. Civil-Robo/Incendio Total y Parcial Daños Totales por Accidente</t>
   </si>
   <si>
-    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>gw</t>
-  </si>
-  <si>
     <t>Prenda</t>
   </si>
   <si>
-    <t>14/01/2022</t>
-  </si>
-  <si>
     <t>TipoAcreedorPrendario</t>
   </si>
   <si>
@@ -162,19 +155,34 @@
     <t>A.M. FINANCE</t>
   </si>
   <si>
-    <t>15/05/2022</t>
-  </si>
-  <si>
-    <t>30/05/2022</t>
-  </si>
-  <si>
     <t>NumPrestamo</t>
   </si>
   <si>
     <t>Vencimiento1Cuota</t>
   </si>
   <si>
-    <t>20/05/2022</t>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>silverarrow</t>
+  </si>
+  <si>
+    <t>08/04/2021</t>
+  </si>
+  <si>
+    <t>1234567RGA012</t>
+  </si>
+  <si>
+    <t>30/05/2021</t>
+  </si>
+  <si>
+    <t>20/05/2021</t>
+  </si>
+  <si>
+    <t>RGA012</t>
   </si>
 </sst>
 </file>
@@ -259,42 +267,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Emisión_Motor"/>
-      <sheetName val="Motor_Answer"/>
-      <sheetName val="EmisionFlota"/>
-      <sheetName val="EmisionAP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>i-preproducciongestion.segurossura.com.ar</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="R19" t="str">
-            <v>AON018</v>
-          </cell>
-          <cell r="S19" t="str">
-            <v>ABC12AON018</v>
-          </cell>
-          <cell r="T19" t="str">
-            <v>ZAZ12AON018</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,7 +535,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U4:U5"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,39 +643,39 @@
         <v>15</v>
       </c>
       <c r="AA1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AB1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AC1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AD1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" t="s">
-        <v>47</v>
-      </c>
       <c r="AF1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3">
-        <v>9381871541</v>
+        <v>2033795924</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -715,7 +687,7 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -724,10 +696,10 @@
         <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="S2" t="s">
         <v>24</v>
@@ -741,32 +713,29 @@
       <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="str">
-        <f>[1]Emisión_Motor!$R19</f>
-        <v>AON018</v>
-      </c>
-      <c r="X2" t="str">
-        <f>[1]Emisión_Motor!$S19</f>
-        <v>ABC12AON018</v>
-      </c>
-      <c r="Y2" t="str">
-        <f>[1]Emisión_Motor!$T19</f>
-        <v>ZAZ12AON018</v>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>46</v>
       </c>
       <c r="Z2" t="s">
         <v>17</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AB2">
         <v>1122334455</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>48</v>
@@ -849,10 +818,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{FF1825CD-D292-4343-A5E3-21873C2DB595}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Motor - Prendario.xlsx
+++ b/Sura/DataSource - Emision Motor - Prendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ECE4FA-88C5-4DD0-A9E7-2975E883A177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71891C7-01EB-4C12-9D64-2912305EB8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Usuario</t>
   </si>
@@ -173,16 +173,19 @@
     <t>08/04/2021</t>
   </si>
   <si>
-    <t>1234567RGA012</t>
-  </si>
-  <si>
     <t>30/05/2021</t>
   </si>
   <si>
     <t>20/05/2021</t>
   </si>
   <si>
-    <t>RGA012</t>
+    <t>RGM013</t>
+  </si>
+  <si>
+    <t>1234567RGM013</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
   </si>
 </sst>
 </file>
@@ -534,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R2">
         <v>2021</v>
@@ -708,19 +711,19 @@
         <v>147</v>
       </c>
       <c r="U2">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="V2" t="s">
         <v>33</v>
       </c>
       <c r="W2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" t="s">
         <v>49</v>
       </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
       <c r="Y2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
         <v>17</v>
@@ -735,10 +738,10 @@
         <v>45</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="AF2">
         <v>3</v>

--- a/Sura/DataSource - Emision Motor - Prendario.xlsx
+++ b/Sura/DataSource - Emision Motor - Prendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71891C7-01EB-4C12-9D64-2912305EB8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC5C82-B291-4F4F-B2D2-92C47B065A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,13 +179,13 @@
     <t>20/05/2021</t>
   </si>
   <si>
-    <t>RGM013</t>
-  </si>
-  <si>
-    <t>1234567RGM013</t>
-  </si>
-  <si>
-    <t>03/05/2021</t>
+    <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>RGM014</t>
+  </si>
+  <si>
+    <t>1234567RGM014</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
     <col min="21" max="21" width="11.5703125" customWidth="1"/>
     <col min="22" max="22" width="22.42578125" customWidth="1"/>
     <col min="23" max="23" width="21.85546875" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" customWidth="1"/>
     <col min="25" max="25" width="17.7109375" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R2">
         <v>2021</v>
@@ -717,13 +717,13 @@
         <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="s">
         <v>17</v>

--- a/Sura/DataSource - Emision Motor - Prendario.xlsx
+++ b/Sura/DataSource - Emision Motor - Prendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC5C82-B291-4F4F-B2D2-92C47B065A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E606ACCD-680D-4798-9578-063C72699D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
